--- a/biology/Zoologie/Dendropsophus_seniculus/Dendropsophus_seniculus.xlsx
+++ b/biology/Zoologie/Dendropsophus_seniculus/Dendropsophus_seniculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus seniculus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus seniculus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Brésil. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Brésil. Elle se rencontre :
 dans le sud de l'État de Bahia depuis Porto Seguro ;
 dans l'est de l'État du Minas Gerais ;
 dans l'État d'Espírito Santo ;
@@ -547,7 +561,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Burmeister, 1856 : Erläuterungen zur Fauna Brasiliens, enthaltend Abbildungen und ausführliche Beschreibungen neuer oder ungenügend bekannter Thier-Arten. Druck und Verlag von Georg Reimer, Berlin, Germany.
 Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
